--- a/fhir/indisa/StructureDefinition-ProfileHealthcareService.xlsx
+++ b/fhir/indisa/StructureDefinition-ProfileHealthcareService.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5307" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5307" uniqueCount="551">
   <si>
     <t>Path</t>
   </si>
@@ -539,11 +539,14 @@
     <t>servicePartOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://digitalware-klinic.github.io/fhir/indisa/StructureDefinition/ServicePartOf}
+    <t xml:space="preserve">Extension {https://digitalware-klinic.github.io/fhir/indisa/StructureDefinition-ServicePartOf}
 </t>
   </si>
   <si>
-    <t>Subservicio</t>
+    <t>Subservices</t>
+  </si>
+  <si>
+    <t>Subservices on health services.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1318,7 +1321,7 @@
     <t>HealthcareService.serviceProvisionCode.coding.system</t>
   </si>
   <si>
-    <t>https://www.digitalware.com.co/salud/fhir/codesystem/provision-codes</t>
+    <t>https://digitalware-klinic.github.io/fhir/indisa/CodeSystem-ProgramCodes</t>
   </si>
   <si>
     <t>HealthcareService.serviceProvisionCode.coding.version</t>
@@ -1438,7 +1441,7 @@
     <t>HealthcareService.program.coding.system</t>
   </si>
   <si>
-    <t>https://www.digitalware.com.co/salud/fhir/codesystem/program-codes</t>
+    <t>https://digitalware-klinic.github.io/fhir/indisa/CodeSystem-program-codes</t>
   </si>
   <si>
     <t>HealthcareService.program.coding.version</t>
@@ -1552,7 +1555,7 @@
     <t>HealthcareService.referralMethod.coding.system</t>
   </si>
   <si>
-    <t>https://www.digitalware.com.co/salud/fhir/codesystem/referen-codes</t>
+    <t>https://digitalware-klinic.github.io/fhir/indisa/CodeSystem-ReferenCodes</t>
   </si>
   <si>
     <t>HealthcareService.referralMethod.coding.version</t>
@@ -1868,43 +1871,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.2578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.3984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="88.69921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.25" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.93359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="49.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.01171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="46.328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="99.8515625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4139,7 +4142,7 @@
         <v>168</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4199,7 +4202,7 @@
         <v>40</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>74</v>
@@ -4213,7 +4216,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4239,16 +4242,16 @@
         <v>66</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>69</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>38</v>
@@ -4297,7 +4300,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -4320,7 +4323,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4343,13 +4346,13 @@
         <v>47</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4400,7 +4403,7 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -4415,15 +4418,15 @@
         <v>58</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4526,7 +4529,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4631,7 +4634,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4657,23 +4660,23 @@
         <v>122</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>38</v>
@@ -4694,10 +4697,10 @@
         <v>143</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>38</v>
@@ -4715,7 +4718,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -4730,7 +4733,7 @@
         <v>58</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
@@ -4738,7 +4741,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4761,19 +4764,19 @@
         <v>47</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>38</v>
@@ -4801,10 +4804,10 @@
         <v>104</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>38</v>
@@ -4822,7 +4825,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -4837,7 +4840,7 @@
         <v>58</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
@@ -4845,7 +4848,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4871,29 +4874,29 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>38</v>
@@ -4929,7 +4932,7 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -4944,7 +4947,7 @@
         <v>58</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -4952,7 +4955,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4978,13 +4981,13 @@
         <v>48</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4998,7 +5001,7 @@
         <v>38</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>38</v>
@@ -5034,7 +5037,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -5049,7 +5052,7 @@
         <v>58</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
@@ -5057,7 +5060,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5080,13 +5083,13 @@
         <v>47</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5137,7 +5140,7 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
@@ -5152,7 +5155,7 @@
         <v>58</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5183,16 +5186,16 @@
         <v>47</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5242,7 +5245,7 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -5257,7 +5260,7 @@
         <v>58</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -5265,7 +5268,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5288,23 +5291,23 @@
         <v>47</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q33" t="s" s="2">
         <v>38</v>
@@ -5313,7 +5316,7 @@
         <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>38</v>
@@ -5349,7 +5352,7 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
@@ -5364,15 +5367,15 @@
         <v>58</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5395,16 +5398,16 @@
         <v>47</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5454,7 +5457,7 @@
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
@@ -5469,7 +5472,7 @@
         <v>58</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
@@ -5477,7 +5480,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5580,7 +5583,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5685,7 +5688,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5711,13 +5714,13 @@
         <v>48</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5767,7 +5770,7 @@
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -5776,7 +5779,7 @@
         <v>46</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>58</v>
@@ -5790,7 +5793,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5816,13 +5819,13 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5851,10 +5854,10 @@
         <v>104</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>38</v>
@@ -5872,7 +5875,7 @@
         <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
@@ -5895,7 +5898,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5918,16 +5921,16 @@
         <v>47</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5977,7 +5980,7 @@
         <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
@@ -5992,7 +5995,7 @@
         <v>58</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
@@ -6000,7 +6003,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6026,13 +6029,13 @@
         <v>48</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6082,7 +6085,7 @@
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
@@ -6105,11 +6108,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6128,16 +6131,16 @@
         <v>47</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6166,10 +6169,10 @@
         <v>112</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>38</v>
@@ -6187,7 +6190,7 @@
         <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>39</v>
@@ -6202,15 +6205,15 @@
         <v>58</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6313,7 +6316,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6418,7 +6421,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6444,16 +6447,16 @@
         <v>100</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>38</v>
@@ -6502,7 +6505,7 @@
         <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>39</v>
@@ -6517,7 +6520,7 @@
         <v>58</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
@@ -6525,7 +6528,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6628,7 +6631,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6733,7 +6736,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6759,23 +6762,23 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>38</v>
@@ -6817,7 +6820,7 @@
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
@@ -6832,7 +6835,7 @@
         <v>58</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
@@ -6840,7 +6843,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6866,13 +6869,13 @@
         <v>48</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6922,7 +6925,7 @@
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>39</v>
@@ -6937,7 +6940,7 @@
         <v>58</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
@@ -6945,7 +6948,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6971,14 +6974,14 @@
         <v>122</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>38</v>
@@ -7027,7 +7030,7 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
@@ -7042,7 +7045,7 @@
         <v>58</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
@@ -7050,7 +7053,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7076,14 +7079,14 @@
         <v>48</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>38</v>
@@ -7132,7 +7135,7 @@
         <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>39</v>
@@ -7147,7 +7150,7 @@
         <v>58</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
@@ -7155,7 +7158,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7178,19 +7181,19 @@
         <v>47</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>38</v>
@@ -7239,7 +7242,7 @@
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>39</v>
@@ -7254,7 +7257,7 @@
         <v>58</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
@@ -7262,7 +7265,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7288,16 +7291,16 @@
         <v>48</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>38</v>
@@ -7346,7 +7349,7 @@
         <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>39</v>
@@ -7361,7 +7364,7 @@
         <v>58</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
@@ -7369,11 +7372,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7392,13 +7395,13 @@
         <v>47</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7428,10 +7431,10 @@
         <v>112</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>38</v>
@@ -7449,7 +7452,7 @@
         <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>39</v>
@@ -7464,7 +7467,7 @@
         <v>58</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
@@ -7472,7 +7475,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7575,7 +7578,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7680,7 +7683,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7706,16 +7709,16 @@
         <v>100</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>38</v>
@@ -7764,7 +7767,7 @@
         <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>39</v>
@@ -7779,7 +7782,7 @@
         <v>58</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
@@ -7787,7 +7790,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7890,7 +7893,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7995,7 +7998,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8021,23 +8024,23 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>38</v>
@@ -8079,7 +8082,7 @@
         <v>38</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>39</v>
@@ -8094,7 +8097,7 @@
         <v>58</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
@@ -8102,7 +8105,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8128,13 +8131,13 @@
         <v>48</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8184,7 +8187,7 @@
         <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>39</v>
@@ -8199,7 +8202,7 @@
         <v>58</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8233,14 +8236,14 @@
         <v>122</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>38</v>
@@ -8289,7 +8292,7 @@
         <v>38</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>39</v>
@@ -8304,7 +8307,7 @@
         <v>58</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
@@ -8312,7 +8315,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8338,14 +8341,14 @@
         <v>48</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>38</v>
@@ -8394,7 +8397,7 @@
         <v>38</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>39</v>
@@ -8409,7 +8412,7 @@
         <v>58</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
@@ -8417,7 +8420,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8440,19 +8443,19 @@
         <v>47</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>38</v>
@@ -8501,7 +8504,7 @@
         <v>38</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>39</v>
@@ -8516,7 +8519,7 @@
         <v>58</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
@@ -8524,7 +8527,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8550,16 +8553,16 @@
         <v>48</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>38</v>
@@ -8608,7 +8611,7 @@
         <v>38</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>39</v>
@@ -8623,7 +8626,7 @@
         <v>58</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8654,13 +8657,13 @@
         <v>47</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8690,10 +8693,10 @@
         <v>126</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>38</v>
@@ -8711,7 +8714,7 @@
         <v>38</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>39</v>
@@ -8726,7 +8729,7 @@
         <v>58</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
@@ -8734,7 +8737,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8837,7 +8840,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8942,7 +8945,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8968,16 +8971,16 @@
         <v>100</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>38</v>
@@ -9026,7 +9029,7 @@
         <v>38</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>39</v>
@@ -9041,7 +9044,7 @@
         <v>58</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>38</v>
@@ -9049,7 +9052,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9152,7 +9155,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9257,7 +9260,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9283,23 +9286,23 @@
         <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>38</v>
@@ -9341,7 +9344,7 @@
         <v>38</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>39</v>
@@ -9356,7 +9359,7 @@
         <v>58</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>38</v>
@@ -9364,7 +9367,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9390,13 +9393,13 @@
         <v>48</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9446,7 +9449,7 @@
         <v>38</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>39</v>
@@ -9461,7 +9464,7 @@
         <v>58</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>38</v>
@@ -9469,7 +9472,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9495,14 +9498,14 @@
         <v>122</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>38</v>
@@ -9551,7 +9554,7 @@
         <v>38</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>39</v>
@@ -9566,7 +9569,7 @@
         <v>58</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>38</v>
@@ -9574,7 +9577,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9600,14 +9603,14 @@
         <v>48</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>38</v>
@@ -9656,7 +9659,7 @@
         <v>38</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>39</v>
@@ -9671,7 +9674,7 @@
         <v>58</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>38</v>
@@ -9679,7 +9682,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9702,19 +9705,19 @@
         <v>47</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>38</v>
@@ -9763,7 +9766,7 @@
         <v>38</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>39</v>
@@ -9778,7 +9781,7 @@
         <v>58</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>38</v>
@@ -9786,7 +9789,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9812,16 +9815,16 @@
         <v>48</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>38</v>
@@ -9870,7 +9873,7 @@
         <v>38</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>39</v>
@@ -9885,7 +9888,7 @@
         <v>58</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>38</v>
@@ -9893,7 +9896,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9916,13 +9919,13 @@
         <v>47</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9973,7 +9976,7 @@
         <v>38</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>39</v>
@@ -9988,15 +9991,15 @@
         <v>58</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10099,7 +10102,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10204,7 +10207,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10230,13 +10233,13 @@
         <v>48</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10286,7 +10289,7 @@
         <v>38</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>39</v>
@@ -10295,7 +10298,7 @@
         <v>46</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>58</v>
@@ -10309,7 +10312,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10335,13 +10338,13 @@
         <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10370,10 +10373,10 @@
         <v>104</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>38</v>
@@ -10391,7 +10394,7 @@
         <v>38</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>39</v>
@@ -10414,7 +10417,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10437,16 +10440,16 @@
         <v>47</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10496,7 +10499,7 @@
         <v>38</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>39</v>
@@ -10511,7 +10514,7 @@
         <v>58</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>38</v>
@@ -10519,7 +10522,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10545,13 +10548,13 @@
         <v>48</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10601,7 +10604,7 @@
         <v>38</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>39</v>
@@ -10624,7 +10627,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10650,10 +10653,10 @@
         <v>48</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10704,7 +10707,7 @@
         <v>38</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>39</v>
@@ -10719,7 +10722,7 @@
         <v>58</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>38</v>
@@ -10727,7 +10730,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10753,13 +10756,13 @@
         <v>48</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10809,7 +10812,7 @@
         <v>38</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>39</v>
@@ -10824,7 +10827,7 @@
         <v>58</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>38</v>
@@ -10832,7 +10835,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10855,13 +10858,13 @@
         <v>38</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10912,7 +10915,7 @@
         <v>38</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>39</v>
@@ -10927,7 +10930,7 @@
         <v>58</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>38</v>
@@ -10935,7 +10938,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10958,13 +10961,13 @@
         <v>47</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11015,7 +11018,7 @@
         <v>38</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>39</v>
@@ -11030,7 +11033,7 @@
         <v>58</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>38</v>
@@ -11038,7 +11041,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11061,16 +11064,16 @@
         <v>38</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11120,7 +11123,7 @@
         <v>38</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>39</v>
@@ -11135,7 +11138,7 @@
         <v>58</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>38</v>
@@ -11143,7 +11146,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11166,16 +11169,16 @@
         <v>38</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -11225,7 +11228,7 @@
         <v>38</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>39</v>
@@ -11240,7 +11243,7 @@
         <v>58</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>38</v>
@@ -11248,7 +11251,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11271,16 +11274,16 @@
         <v>38</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -11309,10 +11312,10 @@
         <v>112</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>38</v>
@@ -11330,7 +11333,7 @@
         <v>38</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>39</v>
@@ -11345,7 +11348,7 @@
         <v>58</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>38</v>
@@ -11353,7 +11356,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11456,7 +11459,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11561,7 +11564,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11587,16 +11590,16 @@
         <v>100</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>38</v>
@@ -11645,7 +11648,7 @@
         <v>38</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>39</v>
@@ -11660,7 +11663,7 @@
         <v>58</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>38</v>
@@ -11668,7 +11671,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11771,7 +11774,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11876,7 +11879,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11902,23 +11905,23 @@
         <v>88</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>38</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="R96" t="s" s="2">
         <v>38</v>
@@ -11960,7 +11963,7 @@
         <v>38</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>39</v>
@@ -11975,7 +11978,7 @@
         <v>58</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>38</v>
@@ -11983,7 +11986,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12009,13 +12012,13 @@
         <v>48</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -12065,7 +12068,7 @@
         <v>38</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>39</v>
@@ -12080,7 +12083,7 @@
         <v>58</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>38</v>
@@ -12088,7 +12091,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12114,14 +12117,14 @@
         <v>122</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>38</v>
@@ -12170,7 +12173,7 @@
         <v>38</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>39</v>
@@ -12185,7 +12188,7 @@
         <v>58</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>38</v>
@@ -12193,7 +12196,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12219,14 +12222,14 @@
         <v>48</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>38</v>
@@ -12275,7 +12278,7 @@
         <v>38</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>39</v>
@@ -12290,7 +12293,7 @@
         <v>58</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>38</v>
@@ -12298,7 +12301,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12321,19 +12324,19 @@
         <v>47</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>38</v>
@@ -12382,7 +12385,7 @@
         <v>38</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>39</v>
@@ -12397,7 +12400,7 @@
         <v>58</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>38</v>
@@ -12405,7 +12408,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12431,16 +12434,16 @@
         <v>48</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>38</v>
@@ -12489,7 +12492,7 @@
         <v>38</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>39</v>
@@ -12504,7 +12507,7 @@
         <v>58</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>38</v>
@@ -12512,7 +12515,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12535,13 +12538,13 @@
         <v>38</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12592,7 +12595,7 @@
         <v>38</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>39</v>
@@ -12615,7 +12618,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12718,7 +12721,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12823,11 +12826,11 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -12849,16 +12852,16 @@
         <v>66</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>69</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>38</v>
@@ -12907,7 +12910,7 @@
         <v>38</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>39</v>
@@ -12930,7 +12933,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -12953,13 +12956,13 @@
         <v>38</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -12989,7 +12992,7 @@
         <v>112</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Y106" t="s" s="2">
         <v>38</v>
@@ -13010,7 +13013,7 @@
         <v>38</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>39</v>
@@ -13025,7 +13028,7 @@
         <v>58</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>38</v>
@@ -13033,7 +13036,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13056,16 +13059,16 @@
         <v>38</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -13115,7 +13118,7 @@
         <v>38</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>39</v>
@@ -13130,7 +13133,7 @@
         <v>58</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>38</v>
@@ -13138,7 +13141,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13161,16 +13164,16 @@
         <v>38</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
@@ -13199,10 +13202,10 @@
         <v>112</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>38</v>
@@ -13220,7 +13223,7 @@
         <v>38</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>39</v>
@@ -13235,7 +13238,7 @@
         <v>58</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>38</v>
@@ -13243,7 +13246,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13346,7 +13349,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13451,7 +13454,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13477,16 +13480,16 @@
         <v>100</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>38</v>
@@ -13535,7 +13538,7 @@
         <v>38</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>39</v>
@@ -13550,7 +13553,7 @@
         <v>58</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>38</v>
@@ -13558,7 +13561,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13661,7 +13664,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13766,7 +13769,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -13792,23 +13795,23 @@
         <v>88</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>38</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="R114" t="s" s="2">
         <v>38</v>
@@ -13850,7 +13853,7 @@
         <v>38</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>39</v>
@@ -13865,7 +13868,7 @@
         <v>58</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>38</v>
@@ -13873,7 +13876,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -13899,13 +13902,13 @@
         <v>48</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -13955,7 +13958,7 @@
         <v>38</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>39</v>
@@ -13970,7 +13973,7 @@
         <v>58</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>38</v>
@@ -13978,7 +13981,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14004,14 +14007,14 @@
         <v>122</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>38</v>
@@ -14060,7 +14063,7 @@
         <v>38</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>39</v>
@@ -14075,7 +14078,7 @@
         <v>58</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>38</v>
@@ -14083,7 +14086,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14109,14 +14112,14 @@
         <v>48</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>38</v>
@@ -14165,7 +14168,7 @@
         <v>38</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>39</v>
@@ -14180,7 +14183,7 @@
         <v>58</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>38</v>
@@ -14188,7 +14191,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14211,19 +14214,19 @@
         <v>47</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>38</v>
@@ -14272,7 +14275,7 @@
         <v>38</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>39</v>
@@ -14287,7 +14290,7 @@
         <v>58</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>38</v>
@@ -14295,7 +14298,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14321,16 +14324,16 @@
         <v>48</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>38</v>
@@ -14379,7 +14382,7 @@
         <v>38</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>39</v>
@@ -14394,7 +14397,7 @@
         <v>58</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>38</v>
@@ -14402,7 +14405,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14425,16 +14428,16 @@
         <v>38</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
@@ -14463,7 +14466,7 @@
         <v>112</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Y120" t="s" s="2">
         <v>38</v>
@@ -14484,7 +14487,7 @@
         <v>38</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>39</v>
@@ -14499,7 +14502,7 @@
         <v>58</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>38</v>
@@ -14507,7 +14510,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14610,7 +14613,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14715,7 +14718,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -14741,16 +14744,16 @@
         <v>100</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>38</v>
@@ -14799,7 +14802,7 @@
         <v>38</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>39</v>
@@ -14814,7 +14817,7 @@
         <v>58</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>38</v>
@@ -14822,7 +14825,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -14925,7 +14928,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15030,7 +15033,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15056,23 +15059,23 @@
         <v>88</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>38</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="R126" t="s" s="2">
         <v>38</v>
@@ -15114,7 +15117,7 @@
         <v>38</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>39</v>
@@ -15129,7 +15132,7 @@
         <v>58</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>38</v>
@@ -15137,7 +15140,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15163,13 +15166,13 @@
         <v>48</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -15219,7 +15222,7 @@
         <v>38</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>39</v>
@@ -15234,7 +15237,7 @@
         <v>58</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>38</v>
@@ -15242,7 +15245,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15268,14 +15271,14 @@
         <v>122</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>38</v>
@@ -15324,7 +15327,7 @@
         <v>38</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>39</v>
@@ -15339,7 +15342,7 @@
         <v>58</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>38</v>
@@ -15347,7 +15350,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15373,14 +15376,14 @@
         <v>48</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>38</v>
@@ -15429,7 +15432,7 @@
         <v>38</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>39</v>
@@ -15444,7 +15447,7 @@
         <v>58</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>38</v>
@@ -15452,7 +15455,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15475,19 +15478,19 @@
         <v>47</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>38</v>
@@ -15536,7 +15539,7 @@
         <v>38</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>39</v>
@@ -15551,7 +15554,7 @@
         <v>58</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>38</v>
@@ -15559,7 +15562,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15585,16 +15588,16 @@
         <v>48</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>38</v>
@@ -15643,7 +15646,7 @@
         <v>38</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>39</v>
@@ -15658,7 +15661,7 @@
         <v>58</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>38</v>
@@ -15666,7 +15669,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15689,16 +15692,16 @@
         <v>38</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -15748,7 +15751,7 @@
         <v>38</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>39</v>
@@ -15771,7 +15774,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -15794,13 +15797,13 @@
         <v>38</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -15830,10 +15833,10 @@
         <v>112</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>38</v>
@@ -15851,7 +15854,7 @@
         <v>38</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>39</v>
@@ -15866,7 +15869,7 @@
         <v>58</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>38</v>
@@ -15874,7 +15877,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -15977,7 +15980,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16082,7 +16085,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16108,16 +16111,16 @@
         <v>100</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>38</v>
@@ -16166,7 +16169,7 @@
         <v>38</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>39</v>
@@ -16181,7 +16184,7 @@
         <v>58</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>38</v>
@@ -16189,7 +16192,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16292,7 +16295,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -16397,7 +16400,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16423,23 +16426,23 @@
         <v>88</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>38</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="R139" t="s" s="2">
         <v>38</v>
@@ -16481,7 +16484,7 @@
         <v>38</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>39</v>
@@ -16496,7 +16499,7 @@
         <v>58</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>38</v>
@@ -16504,7 +16507,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16530,13 +16533,13 @@
         <v>48</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
@@ -16586,7 +16589,7 @@
         <v>38</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>39</v>
@@ -16601,7 +16604,7 @@
         <v>58</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>38</v>
@@ -16609,7 +16612,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -16635,14 +16638,14 @@
         <v>122</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>38</v>
@@ -16691,7 +16694,7 @@
         <v>38</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>39</v>
@@ -16706,7 +16709,7 @@
         <v>58</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>38</v>
@@ -16714,7 +16717,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -16740,14 +16743,14 @@
         <v>48</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>38</v>
@@ -16796,7 +16799,7 @@
         <v>38</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>39</v>
@@ -16811,7 +16814,7 @@
         <v>58</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>38</v>
@@ -16819,7 +16822,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -16842,19 +16845,19 @@
         <v>47</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>38</v>
@@ -16903,7 +16906,7 @@
         <v>38</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>39</v>
@@ -16918,7 +16921,7 @@
         <v>58</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>38</v>
@@ -16926,7 +16929,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -16952,16 +16955,16 @@
         <v>48</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>38</v>
@@ -17010,7 +17013,7 @@
         <v>38</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>39</v>
@@ -17025,7 +17028,7 @@
         <v>58</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>38</v>
@@ -17033,7 +17036,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17056,13 +17059,13 @@
         <v>38</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -17113,7 +17116,7 @@
         <v>38</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>39</v>
@@ -17128,7 +17131,7 @@
         <v>58</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>38</v>
@@ -17136,7 +17139,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17159,16 +17162,16 @@
         <v>38</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
@@ -17218,7 +17221,7 @@
         <v>38</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>39</v>
@@ -17233,7 +17236,7 @@
         <v>58</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>38</v>
@@ -17241,7 +17244,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17344,7 +17347,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -17449,11 +17452,11 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -17475,16 +17478,16 @@
         <v>66</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M149" t="s" s="2">
         <v>69</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>38</v>
@@ -17533,7 +17536,7 @@
         <v>38</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>39</v>
@@ -17556,7 +17559,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -17582,10 +17585,10 @@
         <v>122</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -17594,7 +17597,7 @@
       </c>
       <c r="P150" s="2"/>
       <c r="Q150" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="R150" t="s" s="2">
         <v>38</v>
@@ -17615,10 +17618,10 @@
         <v>143</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>38</v>
@@ -17636,7 +17639,7 @@
         <v>38</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>39</v>
@@ -17651,7 +17654,7 @@
         <v>58</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>38</v>
@@ -17659,7 +17662,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -17682,13 +17685,13 @@
         <v>38</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -17739,7 +17742,7 @@
         <v>38</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>39</v>
@@ -17754,7 +17757,7 @@
         <v>58</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>38</v>
@@ -17762,7 +17765,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -17785,16 +17788,16 @@
         <v>38</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
@@ -17844,7 +17847,7 @@
         <v>38</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>39</v>
@@ -17859,7 +17862,7 @@
         <v>58</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>38</v>
@@ -17867,7 +17870,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -17890,16 +17893,16 @@
         <v>38</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
@@ -17949,7 +17952,7 @@
         <v>38</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>39</v>
@@ -17964,7 +17967,7 @@
         <v>58</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>38</v>
@@ -17972,7 +17975,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -17995,13 +17998,13 @@
         <v>38</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -18052,7 +18055,7 @@
         <v>38</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>39</v>
@@ -18067,7 +18070,7 @@
         <v>58</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>38</v>
@@ -18075,7 +18078,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -18178,7 +18181,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -18283,11 +18286,11 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -18309,16 +18312,16 @@
         <v>66</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M157" t="s" s="2">
         <v>69</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>38</v>
@@ -18367,7 +18370,7 @@
         <v>38</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>39</v>
@@ -18390,7 +18393,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -18416,10 +18419,10 @@
         <v>48</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -18470,7 +18473,7 @@
         <v>38</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>46</v>
@@ -18493,7 +18496,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -18516,13 +18519,13 @@
         <v>38</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -18573,7 +18576,7 @@
         <v>38</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>39</v>
@@ -18588,7 +18591,7 @@
         <v>58</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AK159" t="s" s="2">
         <v>38</v>
@@ -18596,7 +18599,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -18622,10 +18625,10 @@
         <v>48</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -18676,7 +18679,7 @@
         <v>38</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>39</v>
@@ -18691,7 +18694,7 @@
         <v>58</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>38</v>
@@ -18699,7 +18702,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -18722,13 +18725,13 @@
         <v>38</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -18779,7 +18782,7 @@
         <v>38</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>39</v>

--- a/fhir/indisa/StructureDefinition-ProfileHealthcareService.xlsx
+++ b/fhir/indisa/StructureDefinition-ProfileHealthcareService.xlsx
@@ -1871,43 +1871,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.74609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.2578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.3984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.25" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.69921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.01171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="46.328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.93359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="49.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="99.8515625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
